--- a/Self-practice(Tasks and IQ stuff)/splittask.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/splittask.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F6001-584B-43A1-8D70-4D2B5311AB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F567474-DA45-4E28-92C7-0FA34022C507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8295D2A0-DE5D-4A17-8A66-9545837E152F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8295D2A0-DE5D-4A17-8A66-9545837E152F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>45 rd, kenith street, btm, bangalore 500038</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="194">
   <si>
     <t>ADDR</t>
   </si>
@@ -46,22 +43,577 @@
     <t>DT</t>
   </si>
   <si>
-    <t>45 rd,  street, hitech, Hd 500038</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
-    <t>8:30:21</t>
-  </si>
-  <si>
-    <t>5:30:21</t>
+    <t>289 rd, MG Road, bangalore, 560808</t>
+  </si>
+  <si>
+    <t>395 rd, Saket, delhi, 110205</t>
+  </si>
+  <si>
+    <t>610 rd, Salt Lake, kolkata, 700084</t>
+  </si>
+  <si>
+    <t>386 rd, Bandra, mumbai, 400757</t>
+  </si>
+  <si>
+    <t>275 rd, New Town, kolkata, 700838</t>
+  </si>
+  <si>
+    <t>685 rd, Saket, delhi, 110914</t>
+  </si>
+  <si>
+    <t>40 rd, MG Road, bangalore, 560919</t>
+  </si>
+  <si>
+    <t>294 rd, Whitefield, bangalore, 560441</t>
+  </si>
+  <si>
+    <t>605 rd, T Nagar, chennai, 600368</t>
+  </si>
+  <si>
+    <t>175 rd, Whitefield, bangalore, 560644</t>
+  </si>
+  <si>
+    <t>398 rd, T Nagar, chennai, 600341</t>
+  </si>
+  <si>
+    <t>601 rd, Velachery, chennai, 600043</t>
+  </si>
+  <si>
+    <t>722 rd, Salt Lake, kolkata, 700054</t>
+  </si>
+  <si>
+    <t>71 rd, Park Street, kolkata, 700170</t>
+  </si>
+  <si>
+    <t>113 rd, Colaba, mumbai, 400273</t>
+  </si>
+  <si>
+    <t>424 rd, Park Street, kolkata, 700349</t>
+  </si>
+  <si>
+    <t>353 rd, Indiranagar, bangalore, 560776</t>
+  </si>
+  <si>
+    <t>683 rd, Adyar, chennai, 600411</t>
+  </si>
+  <si>
+    <t>369 rd, T Nagar, chennai, 600959</t>
+  </si>
+  <si>
+    <t>504 rd, Park Street, kolkata, 700433</t>
+  </si>
+  <si>
+    <t>571 rd, MG Road, bangalore, 560920</t>
+  </si>
+  <si>
+    <t>726 rd, Saket, delhi, 110631</t>
+  </si>
+  <si>
+    <t>975 rd, Connaught Place, delhi, 110326</t>
+  </si>
+  <si>
+    <t>441 rd, MG Road, bangalore, 560641</t>
+  </si>
+  <si>
+    <t>761 rd, Colaba, mumbai, 400119</t>
+  </si>
+  <si>
+    <t>282 rd, Velachery, chennai, 600927</t>
+  </si>
+  <si>
+    <t>391 rd, Adyar, chennai, 600124</t>
+  </si>
+  <si>
+    <t>662 rd, Connaught Place, delhi, 110643</t>
+  </si>
+  <si>
+    <t>40 rd, Saket, delhi, 110682</t>
+  </si>
+  <si>
+    <t>426 rd, Park Street, kolkata, 700341</t>
+  </si>
+  <si>
+    <t>260 rd, Saket, delhi, 110748</t>
+  </si>
+  <si>
+    <t>814 rd, MG Road, bangalore, 560812</t>
+  </si>
+  <si>
+    <t>456 rd, Adyar, chennai, 600769</t>
+  </si>
+  <si>
+    <t>545 rd, Salt Lake, kolkata, 700959</t>
+  </si>
+  <si>
+    <t>712 rd, Saket, delhi, 110258</t>
+  </si>
+  <si>
+    <t>933 rd, Whitefield, bangalore, 560787</t>
+  </si>
+  <si>
+    <t>30 rd, Bandra, mumbai, 400766</t>
+  </si>
+  <si>
+    <t>193 rd, T Nagar, chennai, 600729</t>
+  </si>
+  <si>
+    <t>193 rd, Colaba, mumbai, 400235</t>
+  </si>
+  <si>
+    <t>778 rd, Salt Lake, kolkata, 700073</t>
+  </si>
+  <si>
+    <t>437 rd, Adyar, chennai, 600015</t>
+  </si>
+  <si>
+    <t>785 rd, Saket, delhi, 110910</t>
+  </si>
+  <si>
+    <t>636 rd, MG Road, bangalore, 560175</t>
+  </si>
+  <si>
+    <t>669 rd, Connaught Place, delhi, 110454</t>
+  </si>
+  <si>
+    <t>737 rd, Connaught Place, delhi, 110779</t>
+  </si>
+  <si>
+    <t>636 rd, Salt Lake, kolkata, 700510</t>
+  </si>
+  <si>
+    <t>764 rd, Saket, delhi, 110383</t>
+  </si>
+  <si>
+    <t>348 rd, Connaught Place, delhi, 110003</t>
+  </si>
+  <si>
+    <t>475 rd, Salt Lake, kolkata, 700059</t>
+  </si>
+  <si>
+    <t>919 rd, T Nagar, chennai, 600653</t>
+  </si>
+  <si>
+    <t>542 rd, Indiranagar, bangalore, 560455</t>
+  </si>
+  <si>
+    <t>157 rd, MG Road, bangalore, 560725</t>
+  </si>
+  <si>
+    <t>7 rd, Connaught Place, delhi, 110354</t>
+  </si>
+  <si>
+    <t>467 rd, Salt Lake, kolkata, 700558</t>
+  </si>
+  <si>
+    <t>953 rd, Indiranagar, bangalore, 560191</t>
+  </si>
+  <si>
+    <t>989 rd, Velachery, chennai, 600679</t>
+  </si>
+  <si>
+    <t>219 rd, Whitefield, bangalore, 560792</t>
+  </si>
+  <si>
+    <t>647 rd, Karol Bagh, delhi, 110137</t>
+  </si>
+  <si>
+    <t>877 rd, MG Road, bangalore, 560622</t>
+  </si>
+  <si>
+    <t>321 rd, Velachery, chennai, 600112</t>
+  </si>
+  <si>
+    <t>907 rd, MG Road, bangalore, 560201</t>
+  </si>
+  <si>
+    <t>88 rd, Adyar, chennai, 600259</t>
+  </si>
+  <si>
+    <t>94 rd, Salt Lake, kolkata, 700451</t>
+  </si>
+  <si>
+    <t>696 rd, Bandra, mumbai, 400597</t>
+  </si>
+  <si>
+    <t>580 rd, Adyar, chennai, 600762</t>
+  </si>
+  <si>
+    <t>361 rd, Indiranagar, bangalore, 560950</t>
+  </si>
+  <si>
+    <t>180 rd, Indiranagar, bangalore, 560440</t>
+  </si>
+  <si>
+    <t>721 rd, Salt Lake, kolkata, 700501</t>
+  </si>
+  <si>
+    <t>626 rd, Salt Lake, kolkata, 700098</t>
+  </si>
+  <si>
+    <t>894 rd, Velachery, chennai, 600367</t>
+  </si>
+  <si>
+    <t>225 rd, Salt Lake, kolkata, 700481</t>
+  </si>
+  <si>
+    <t>626 rd, Park Street, kolkata, 700468</t>
+  </si>
+  <si>
+    <t>864 rd, Karol Bagh, delhi, 110016</t>
+  </si>
+  <si>
+    <t>111 rd, T Nagar, chennai, 600334</t>
+  </si>
+  <si>
+    <t>991 rd, MG Road, bangalore, 560142</t>
+  </si>
+  <si>
+    <t>971 rd, MG Road, bangalore, 560740</t>
+  </si>
+  <si>
+    <t>129 rd, Salt Lake, kolkata, 700452</t>
+  </si>
+  <si>
+    <t>964 rd, Colaba, mumbai, 400967</t>
+  </si>
+  <si>
+    <t>939 rd, Connaught Place, delhi, 110225</t>
+  </si>
+  <si>
+    <t>246 rd, Saket, delhi, 110387</t>
+  </si>
+  <si>
+    <t>927 rd, Connaught Place, delhi, 110163</t>
+  </si>
+  <si>
+    <t>887 rd, Connaught Place, delhi, 110771</t>
+  </si>
+  <si>
+    <t>176 rd, New Town, kolkata, 700229</t>
+  </si>
+  <si>
+    <t>708 rd, Park Street, kolkata, 700144</t>
+  </si>
+  <si>
+    <t>711 rd, Karol Bagh, delhi, 110519</t>
+  </si>
+  <si>
+    <t>780 rd, T Nagar, chennai, 600798</t>
+  </si>
+  <si>
+    <t>109 rd, Velachery, chennai, 600494</t>
+  </si>
+  <si>
+    <t>264 rd, Saket, delhi, 110793</t>
+  </si>
+  <si>
+    <t>833 rd, Velachery, chennai, 600285</t>
+  </si>
+  <si>
+    <t>354 rd, Colaba, mumbai, 400576</t>
+  </si>
+  <si>
+    <t>348 rd, Park Street, kolkata, 700330</t>
+  </si>
+  <si>
+    <t>717 rd, T Nagar, chennai, 600772</t>
+  </si>
+  <si>
+    <t>596 rd, Andheri, mumbai, 400392</t>
+  </si>
+  <si>
+    <t>519 rd, MG Road, bangalore, 560377</t>
+  </si>
+  <si>
+    <t>355 rd, Salt Lake, kolkata, 700849</t>
+  </si>
+  <si>
+    <t>300 rd, Saket, delhi, 110469</t>
+  </si>
+  <si>
+    <t>203 rd, Adyar, chennai, 600732</t>
+  </si>
+  <si>
+    <t>549 rd, New Town, kolkata, 700699</t>
+  </si>
+  <si>
+    <t>188 rd, T Nagar, chennai, 600073</t>
+  </si>
+  <si>
+    <t>954 rd, Saket, delhi, 110912</t>
+  </si>
+  <si>
+    <t>Arjun Bose</t>
+  </si>
+  <si>
+    <t>Priya Yadav</t>
+  </si>
+  <si>
+    <t>Vivaan Yadav</t>
+  </si>
+  <si>
+    <t>Ishita Verma</t>
+  </si>
+  <si>
+    <t>Priya Reddy</t>
+  </si>
+  <si>
+    <t>Aarav Verma</t>
+  </si>
+  <si>
+    <t>Aditya Verma</t>
+  </si>
+  <si>
+    <t>Priya Bose</t>
+  </si>
+  <si>
+    <t>Nisha Yadav</t>
+  </si>
+  <si>
+    <t>Kartik Thakur</t>
+  </si>
+  <si>
+    <t>Kartik Ahuja</t>
+  </si>
+  <si>
+    <t>Kartik Malhotra</t>
+  </si>
+  <si>
+    <t>Krishna Bose</t>
+  </si>
+  <si>
+    <t>Arjun Patel</t>
+  </si>
+  <si>
+    <t>Riya Bose</t>
+  </si>
+  <si>
+    <t>Saanvi Patel</t>
+  </si>
+  <si>
+    <t>Saanvi Kumar</t>
+  </si>
+  <si>
+    <t>Rohan Patel</t>
+  </si>
+  <si>
+    <t>Priya Singh</t>
+  </si>
+  <si>
+    <t>Ishita Singh</t>
+  </si>
+  <si>
+    <t>Ananya Yadav</t>
+  </si>
+  <si>
+    <t>Meera Kapoor</t>
+  </si>
+  <si>
+    <t>Ishita Bose</t>
+  </si>
+  <si>
+    <t>Siddharth Ahuja</t>
+  </si>
+  <si>
+    <t>Riya Ahuja</t>
+  </si>
+  <si>
+    <t>Meera Mehta</t>
+  </si>
+  <si>
+    <t>Ananya Iyer</t>
+  </si>
+  <si>
+    <t>Diya Yadav</t>
+  </si>
+  <si>
+    <t>Rohan Singh</t>
+  </si>
+  <si>
+    <t>Saanvi Kapoor</t>
+  </si>
+  <si>
+    <t>Saanvi Iyer</t>
+  </si>
+  <si>
+    <t>Avni Chowdhury</t>
+  </si>
+  <si>
+    <t>Meera Patel</t>
+  </si>
+  <si>
+    <t>Aarav Thakur</t>
+  </si>
+  <si>
+    <t>Vivaan Chowdhury</t>
+  </si>
+  <si>
+    <t>Kartik Gupta</t>
+  </si>
+  <si>
+    <t>Pooja Kapoor</t>
+  </si>
+  <si>
+    <t>Vivaan Sharma</t>
+  </si>
+  <si>
+    <t>Meera Das</t>
+  </si>
+  <si>
+    <t>Pooja Sharma</t>
+  </si>
+  <si>
+    <t>Krishna Kumar</t>
+  </si>
+  <si>
+    <t>Riya Kapoor</t>
+  </si>
+  <si>
+    <t>Arjun Chowdhury</t>
+  </si>
+  <si>
+    <t>Avni Ahuja</t>
+  </si>
+  <si>
+    <t>Krishna Yadav</t>
+  </si>
+  <si>
+    <t>Siddharth Patel</t>
+  </si>
+  <si>
+    <t>Ananya Singh</t>
+  </si>
+  <si>
+    <t>Ishita Gupta</t>
+  </si>
+  <si>
+    <t>Arjun Iyer</t>
+  </si>
+  <si>
+    <t>Meera Sharma</t>
+  </si>
+  <si>
+    <t>Arjun Ahuja</t>
+  </si>
+  <si>
+    <t>Priya Kumar</t>
+  </si>
+  <si>
+    <t>Ishaan Bose</t>
+  </si>
+  <si>
+    <t>Aditya Nair</t>
+  </si>
+  <si>
+    <t>Ananya Malhotra</t>
+  </si>
+  <si>
+    <t>Ishita Mehta</t>
+  </si>
+  <si>
+    <t>Krishna Kapoor</t>
+  </si>
+  <si>
+    <t>Arjun Verma</t>
+  </si>
+  <si>
+    <t>Saanvi Singh</t>
+  </si>
+  <si>
+    <t>Priya Ahuja</t>
+  </si>
+  <si>
+    <t>Vivaan Pillai</t>
+  </si>
+  <si>
+    <t>Krishna Thakur</t>
+  </si>
+  <si>
+    <t>Ananya Mehta</t>
+  </si>
+  <si>
+    <t>Saanvi Gupta</t>
+  </si>
+  <si>
+    <t>Meera Ahuja</t>
+  </si>
+  <si>
+    <t>Aditya Kumar</t>
+  </si>
+  <si>
+    <t>Aarav Mehta</t>
+  </si>
+  <si>
+    <t>Arjun Sharma</t>
+  </si>
+  <si>
+    <t>Nisha Patel</t>
+  </si>
+  <si>
+    <t>Kartik Banerjee</t>
+  </si>
+  <si>
+    <t>Vivaan Verma</t>
+  </si>
+  <si>
+    <t>Ishita Reddy</t>
+  </si>
+  <si>
+    <t>Riya Chowdhury</t>
+  </si>
+  <si>
+    <t>Krishna Patel</t>
+  </si>
+  <si>
+    <t>Priya Kapoor</t>
+  </si>
+  <si>
+    <t>Siddharth Mehta</t>
+  </si>
+  <si>
+    <t>Kartik Kapoor</t>
+  </si>
+  <si>
+    <t>Riya Pillai</t>
+  </si>
+  <si>
+    <t>Pooja Mehta</t>
+  </si>
+  <si>
+    <t>Krishna Reddy</t>
+  </si>
+  <si>
+    <t>Aryan Gupta</t>
+  </si>
+  <si>
+    <t>Ishita Yadav</t>
+  </si>
+  <si>
+    <t>Ishaan Reddy</t>
+  </si>
+  <si>
+    <t>Avni Yadav</t>
+  </si>
+  <si>
+    <t>Vivaan Ahuja</t>
+  </si>
+  <si>
+    <t>Aryan Verma</t>
+  </si>
+  <si>
+    <t>Krishna Nair</t>
+  </si>
+  <si>
+    <t>Siddharth Singh</t>
+  </si>
+  <si>
+    <t>Riya Thakur</t>
+  </si>
+  <si>
+    <t>Saanvi Banerjee</t>
   </si>
 </sst>
 </file>
@@ -105,18 +657,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,84 +990,1451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB8E4A-0E49-468D-A96C-DD0947E1E00F}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="B1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45562</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8.9212962962962966E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45543</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.12682870370370369</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="3">
+        <v>43988</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.58024305555555555</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45340</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.15221064814814814</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44665</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.94785879629629632</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43930</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.5524189814814815</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45077</v>
+      </c>
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.40593750000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45760</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4.5624999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44753</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.60858796296296291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.73487268518518523</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45591</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.3740046296296296</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44009</v>
+      </c>
+      <c r="D13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.56785879629629632</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45217</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.77673611111111107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44994</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.63211805555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44759</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.19261574074074075</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45279</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.18436342592592592</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45515</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.6369097222222222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45991</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.54234953703703703</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.84954861111111113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45640</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.5793518518518519</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45363</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.62829861111111107</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44752</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.5959606481481482</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44706</v>
+      </c>
+      <c r="D24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.33533564814814815</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45426</v>
+      </c>
+      <c r="D25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.2509953703703704</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45642</v>
+      </c>
+      <c r="D26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.9467592592592594E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44619</v>
+      </c>
+      <c r="D27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.66383101851851856</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="6">
+        <v>5.0682870370370371E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45289</v>
+      </c>
+      <c r="D29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.66605324074074079</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45453</v>
+      </c>
+      <c r="D30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.62185185185185188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44581</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.744212962962963E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44832</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.84278935185185189</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45228</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.58549768518518519</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44925</v>
+      </c>
+      <c r="D34" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.19258101851851853</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45804</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.6670949074074074</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44600</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.52981481481481485</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44373</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.94002314814814814</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44270</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8.4259259259259253E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44138</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.33423611111111112</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43981</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.94763888888888892</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44626</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.86224537037037041</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45519</v>
+      </c>
+      <c r="D42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.44936342592592593</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44642</v>
+      </c>
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.36682870370370368</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45621</v>
+      </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.97458333333333336</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44408</v>
+      </c>
+      <c r="D45" t="s">
+        <v>147</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.9798958333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45874</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.29918981481481483</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44816</v>
+      </c>
+      <c r="D47" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0.46827546296296296</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45075</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0.81738425925925928</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44221</v>
+      </c>
+      <c r="D49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.42891203703703706</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44825</v>
+      </c>
+      <c r="D50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="6">
+        <v>0.86655092592592597</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44649</v>
+      </c>
+      <c r="D51" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.2849652777777778</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44966</v>
+      </c>
+      <c r="D52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.39048611111111109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45225</v>
+      </c>
+      <c r="D53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.15222222222222223</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44389</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+      <c r="E54" s="6">
+        <v>0.47663194444444446</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55" s="3">
+        <v>43994</v>
+      </c>
+      <c r="D55" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.39225694444444442</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="3">
+        <v>45397</v>
+      </c>
+      <c r="D56" t="s">
+        <v>157</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.788599537037037</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1.4699074074074074E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45560</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E58" s="6">
+        <v>0.40665509259259258</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44194</v>
+      </c>
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.61619212962962966</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44733</v>
+      </c>
+      <c r="D60" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60" s="6">
+        <v>0.20163194444444443</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45650</v>
+      </c>
+      <c r="D61" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="6">
+        <v>0.79616898148148152</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="3">
+        <v>45845</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0.25208333333333333</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44255</v>
+      </c>
+      <c r="D63" t="s">
+        <v>162</v>
+      </c>
+      <c r="E63" s="6">
+        <v>0.47075231481481483</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44580</v>
+      </c>
+      <c r="D64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E64" s="6">
+        <v>0.49859953703703702</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="3">
+        <v>45253</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="6">
+        <v>0.3132523148148148</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="3">
+        <v>43909</v>
+      </c>
+      <c r="D66" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="6">
+        <v>2.7916666666666666E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>165</v>
+      </c>
+      <c r="E67" s="6">
+        <v>0.72958333333333336</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44707</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" s="6">
+        <v>0.7484143518518519</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44888</v>
+      </c>
+      <c r="D69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="6">
+        <v>0.20218749999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="3">
+        <v>45174</v>
+      </c>
+      <c r="D70" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="6">
+        <v>0.70491898148148147</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3">
+        <v>45714</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.74032407407407408</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44547</v>
+      </c>
+      <c r="D72" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="6">
+        <v>0.98276620370370371</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="3">
+        <v>45255</v>
+      </c>
+      <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="6">
+        <v>0.13866898148148149</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44561</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="6">
+        <v>0.12518518518518518</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="3">
+        <v>45615</v>
+      </c>
+      <c r="D75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="6">
+        <v>0.41981481481481481</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44935</v>
+      </c>
+      <c r="D76" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0.5950347222222222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45640</v>
+      </c>
+      <c r="D77" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0.39467592592592593</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45341</v>
+      </c>
+      <c r="D78" t="s">
+        <v>174</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0.2215625</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44767</v>
+      </c>
+      <c r="D79" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0.83490740740740743</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45601</v>
+      </c>
+      <c r="D80" t="s">
+        <v>176</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0.557037037037037</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44700</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0.56309027777777776</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44647</v>
+      </c>
+      <c r="D82" t="s">
+        <v>177</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0.18263888888888888</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="3">
+        <v>43892</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0.97116898148148145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45848</v>
+      </c>
+      <c r="D84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0.79002314814814811</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44515</v>
+      </c>
+      <c r="D85" t="s">
+        <v>180</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.85714120370370372</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45241</v>
+      </c>
+      <c r="D86" t="s">
+        <v>181</v>
+      </c>
+      <c r="E86" s="6">
+        <v>0.90914351851851849</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45964</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="6">
+        <v>0.67921296296296296</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44700</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" s="6">
+        <v>3.1331018518518522E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" s="3">
+        <v>45583</v>
+      </c>
+      <c r="D89" t="s">
+        <v>184</v>
+      </c>
+      <c r="E89" s="6">
+        <v>0.71357638888888886</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="3">
+        <v>44501</v>
+      </c>
+      <c r="D90" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="6">
+        <v>0.23133101851851851</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44667</v>
+      </c>
+      <c r="D91" t="s">
+        <v>186</v>
+      </c>
+      <c r="E91" s="6">
+        <v>0.56805555555555554</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="3">
+        <v>44169</v>
+      </c>
+      <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" s="6">
+        <v>0.41362268518518519</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="3">
+        <v>44440</v>
+      </c>
+      <c r="D93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.41197916666666667</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="3">
+        <v>45866</v>
+      </c>
+      <c r="D94" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.58423611111111107</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="3">
+        <v>45822</v>
+      </c>
+      <c r="D95" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0.69611111111111112</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="3">
+        <v>45422</v>
+      </c>
+      <c r="D96" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0.77758101851851846</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44310</v>
+      </c>
+      <c r="D97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0.32950231481481479</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44654</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C98" s="3">
+        <v>45323</v>
+      </c>
+      <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0.67606481481481484</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="3">
+        <v>45612</v>
+      </c>
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.14027777777777778</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C100" s="3">
+        <v>45686</v>
+      </c>
+      <c r="D100" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0.26003472222222224</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>44653</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="C101" s="3">
+        <v>44835</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="6">
+        <v>0.49709490740740742</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Self-practice(Tasks and IQ stuff)/splittask.xlsx
+++ b/Self-practice(Tasks and IQ stuff)/splittask.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\Self-practice(Tasks and IQ stuff)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F567474-DA45-4E28-92C7-0FA34022C507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD95CB7-0F9E-4B48-9BFE-B608ED36B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8295D2A0-DE5D-4A17-8A66-9545837E152F}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11235" xr2:uid="{8295D2A0-DE5D-4A17-8A66-9545837E152F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,9 +671,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -990,127 +987,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CB8E4A-0E49-468D-A96C-DD0947E1E00F}">
-  <dimension ref="B1:M101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="3">
         <v>45562</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="5">
+      <c r="D2" s="5">
         <v>8.9212962962962966E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
         <v>45543</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>0.12682870370370369</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
         <v>43988</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="6">
+      <c r="D4" s="6">
         <v>0.58024305555555555</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
         <v>45340</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5" s="6">
         <v>0.15221064814814814</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
         <v>44665</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6" s="6">
         <v>0.94785879629629632</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
         <v>43930</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="7">
+      <c r="D7" s="6">
         <v>0.5524189814814815</v>
       </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1118,1321 +1115,1320 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
         <v>45077</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="6">
+      <c r="D8" s="6">
         <v>0.40593750000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
         <v>45760</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="6">
+      <c r="D9" s="6">
         <v>4.5624999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
         <v>44753</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>112</v>
       </c>
-      <c r="E10" s="6">
+      <c r="D10" s="6">
         <v>0.60858796296296291</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="3">
         <v>45311</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="6">
+      <c r="D11" s="6">
         <v>0.73487268518518523</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
         <v>45591</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="6">
+      <c r="D12" s="6">
         <v>0.3740046296296296</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
         <v>44009</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="6">
+      <c r="D13" s="6">
         <v>0.56785879629629632</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="3">
+      <c r="B14" s="3">
         <v>45217</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="6">
+      <c r="D14" s="6">
         <v>0.77673611111111107</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3">
         <v>44994</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="6">
+      <c r="D15" s="6">
         <v>0.63211805555555556</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
         <v>44759</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="6">
+      <c r="D16" s="6">
         <v>0.19261574074074075</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="3">
+      <c r="B17" s="3">
         <v>45279</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="6">
+      <c r="D17" s="6">
         <v>0.18436342592592592</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3">
+      <c r="B18" s="3">
         <v>45515</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="6">
+      <c r="D18" s="6">
         <v>0.6369097222222222</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
         <v>45991</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="6">
+      <c r="D19" s="6">
         <v>0.54234953703703703</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="3">
+      <c r="B20" s="3">
         <v>45333</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>122</v>
       </c>
-      <c r="E20" s="6">
+      <c r="D20" s="6">
         <v>0.84954861111111113</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3">
         <v>45640</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>123</v>
       </c>
-      <c r="E21" s="6">
+      <c r="D21" s="6">
         <v>0.5793518518518519</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="3">
+      <c r="B22" s="3">
         <v>45363</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>124</v>
       </c>
-      <c r="E22" s="6">
+      <c r="D22" s="6">
         <v>0.62829861111111107</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
         <v>44752</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="6">
+      <c r="D23" s="6">
         <v>0.5959606481481482</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="3">
+      <c r="B24" s="3">
         <v>44706</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="6">
+      <c r="D24" s="6">
         <v>0.33533564814814815</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="3">
+      <c r="B25" s="3">
         <v>45426</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="6">
+      <c r="D25" s="6">
         <v>0.2509953703703704</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="3">
+      <c r="B26" s="3">
         <v>45642</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="6">
+      <c r="D26" s="6">
         <v>2.9467592592592594E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3">
+      <c r="B27" s="3">
         <v>44619</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="6">
+      <c r="D27" s="6">
         <v>0.66383101851851856</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="3">
+      <c r="B28" s="3">
         <v>44118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="6">
+      <c r="D28" s="6">
         <v>5.0682870370370371E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="3">
+      <c r="B29" s="3">
         <v>45289</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="6">
+      <c r="D29" s="6">
         <v>0.66605324074074079</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="3">
+      <c r="B30" s="3">
         <v>45453</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="6">
+      <c r="D30" s="6">
         <v>0.62185185185185188</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="3">
+      <c r="B31" s="3">
         <v>44581</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="6">
+      <c r="D31" s="6">
         <v>1.744212962962963E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="3">
+      <c r="B32" s="3">
         <v>44832</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="6">
+      <c r="D32" s="6">
         <v>0.84278935185185189</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="3">
+      <c r="B33" s="3">
         <v>45228</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="6">
+      <c r="D33" s="6">
         <v>0.58549768518518519</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="3">
+      <c r="B34" s="3">
         <v>44925</v>
       </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="6">
+      <c r="D34" s="6">
         <v>0.19258101851851853</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="3">
+      <c r="B35" s="3">
         <v>45804</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="6">
+      <c r="D35" s="6">
         <v>0.6670949074074074</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3">
+      <c r="B36" s="3">
         <v>44600</v>
       </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="6">
+      <c r="D36" s="6">
         <v>0.52981481481481485</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="3">
+      <c r="B37" s="3">
         <v>44373</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="6">
+      <c r="D37" s="6">
         <v>0.94002314814814814</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="3">
+      <c r="B38" s="3">
         <v>44270</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="6">
+      <c r="D38" s="6">
         <v>8.4259259259259253E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="3">
+      <c r="B39" s="3">
         <v>44138</v>
       </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="6">
+      <c r="D39" s="6">
         <v>0.33423611111111112</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="3">
+      <c r="B40" s="3">
         <v>43981</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="6">
+      <c r="D40" s="6">
         <v>0.94763888888888892</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="3">
+      <c r="B41" s="3">
         <v>44626</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="6">
+      <c r="D41" s="6">
         <v>0.86224537037037041</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="3">
+      <c r="B42" s="3">
         <v>45519</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="6">
+      <c r="D42" s="6">
         <v>0.44936342592592593</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="3">
+      <c r="B43" s="3">
         <v>44642</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="6">
+      <c r="D43" s="6">
         <v>0.36682870370370368</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="3">
+      <c r="B44" s="3">
         <v>45621</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="6">
+      <c r="D44" s="6">
         <v>0.97458333333333336</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="3">
+      <c r="B45" s="3">
         <v>44408</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="6">
+      <c r="D45" s="6">
         <v>0.9798958333333333</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="3">
+      <c r="B46" s="3">
         <v>45874</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="6">
+      <c r="D46" s="6">
         <v>0.29918981481481483</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="3">
+      <c r="B47" s="3">
         <v>44816</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="6">
+      <c r="D47" s="6">
         <v>0.46827546296296296</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="3">
+      <c r="B48" s="3">
         <v>45075</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="6">
+      <c r="D48" s="6">
         <v>0.81738425925925928</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="3">
+      <c r="B49" s="3">
         <v>44221</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="6">
+      <c r="D49" s="6">
         <v>0.42891203703703706</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="3">
+      <c r="B50" s="3">
         <v>44825</v>
       </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="6">
+      <c r="D50" s="6">
         <v>0.86655092592592597</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="3">
+      <c r="B51" s="3">
         <v>44649</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="6">
+      <c r="D51" s="6">
         <v>0.2849652777777778</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="3">
+      <c r="B52" s="3">
         <v>44966</v>
       </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="6">
+      <c r="D52" s="6">
         <v>0.39048611111111109</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="3">
+      <c r="B53" s="3">
         <v>45225</v>
       </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="6">
+      <c r="D53" s="6">
         <v>0.15222222222222223</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="3">
+      <c r="B54" s="3">
         <v>44389</v>
       </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>115</v>
       </c>
-      <c r="E54" s="6">
+      <c r="D54" s="6">
         <v>0.47663194444444446</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="3">
+      <c r="B55" s="3">
         <v>43994</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="6">
+      <c r="D55" s="6">
         <v>0.39225694444444442</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="3">
+      <c r="B56" s="3">
         <v>45397</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="6">
+      <c r="D56" s="6">
         <v>0.788599537037037</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="3">
+      <c r="B57" s="3">
         <v>44226</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="6">
+      <c r="D57" s="6">
         <v>1.4699074074074074E-3</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="3">
+      <c r="B58" s="3">
         <v>45560</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>159</v>
       </c>
-      <c r="E58" s="6">
+      <c r="D58" s="6">
         <v>0.40665509259259258</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="3">
+      <c r="B59" s="3">
         <v>44194</v>
       </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>160</v>
       </c>
-      <c r="E59" s="6">
+      <c r="D59" s="6">
         <v>0.61619212962962966</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="3">
+      <c r="B60" s="3">
         <v>44733</v>
       </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="6">
+      <c r="D60" s="6">
         <v>0.20163194444444443</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="3">
+      <c r="B61" s="3">
         <v>45650</v>
       </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="6">
+      <c r="D61" s="6">
         <v>0.79616898148148152</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="3">
+      <c r="B62" s="3">
         <v>45845</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>135</v>
       </c>
-      <c r="E62" s="6">
+      <c r="D62" s="6">
         <v>0.25208333333333333</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="3">
+      <c r="B63" s="3">
         <v>44255</v>
       </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="6">
+      <c r="D63" s="6">
         <v>0.47075231481481483</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="3">
+      <c r="B64" s="3">
         <v>44580</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="6">
+      <c r="D64" s="6">
         <v>0.49859953703703702</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="3">
+      <c r="B65" s="3">
         <v>45253</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>163</v>
       </c>
-      <c r="E65" s="6">
+      <c r="D65" s="6">
         <v>0.3132523148148148</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="3">
+      <c r="B66" s="3">
         <v>43909</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>164</v>
       </c>
-      <c r="E66" s="6">
+      <c r="D66" s="6">
         <v>2.7916666666666666E-2</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>38</v>
       </c>
-      <c r="C67" s="3">
+      <c r="B67" s="3">
         <v>44126</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>165</v>
       </c>
-      <c r="E67" s="6">
+      <c r="D67" s="6">
         <v>0.72958333333333336</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="3">
+      <c r="B68" s="3">
         <v>44707</v>
       </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="6">
+      <c r="D68" s="6">
         <v>0.7484143518518519</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>36</v>
       </c>
-      <c r="C69" s="3">
+      <c r="B69" s="3">
         <v>44888</v>
       </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="6">
+      <c r="D69" s="6">
         <v>0.20218749999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="3">
+      <c r="B70" s="3">
         <v>45174</v>
       </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>168</v>
       </c>
-      <c r="E70" s="6">
+      <c r="D70" s="6">
         <v>0.70491898148148147</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="3">
+      <c r="B71" s="3">
         <v>45714</v>
       </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>169</v>
       </c>
-      <c r="E71" s="6">
+      <c r="D71" s="6">
         <v>0.74032407407407408</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="3">
+      <c r="B72" s="3">
         <v>44547</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>170</v>
       </c>
-      <c r="E72" s="6">
+      <c r="D72" s="6">
         <v>0.98276620370370371</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="3">
+      <c r="B73" s="3">
         <v>45255</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="6">
+      <c r="D73" s="6">
         <v>0.13866898148148149</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="3">
+      <c r="B74" s="3">
         <v>44561</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>141</v>
       </c>
-      <c r="E74" s="6">
+      <c r="D74" s="6">
         <v>0.12518518518518518</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="3">
+      <c r="B75" s="3">
         <v>45615</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="6">
+      <c r="D75" s="6">
         <v>0.41981481481481481</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="3">
+      <c r="B76" s="3">
         <v>44935</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>172</v>
       </c>
-      <c r="E76" s="6">
+      <c r="D76" s="6">
         <v>0.5950347222222222</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="3">
+      <c r="B77" s="3">
         <v>45640</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="6">
+      <c r="D77" s="6">
         <v>0.39467592592592593</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="3">
+      <c r="B78" s="3">
         <v>45341</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="6">
+      <c r="D78" s="6">
         <v>0.2215625</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="3">
+      <c r="B79" s="3">
         <v>44767</v>
       </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="6">
+      <c r="D79" s="6">
         <v>0.83490740740740743</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="3">
+      <c r="B80" s="3">
         <v>45601</v>
       </c>
-      <c r="D80" t="s">
+      <c r="C80" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="6">
+      <c r="D80" s="6">
         <v>0.557037037037037</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>24</v>
       </c>
-      <c r="C81" s="3">
+      <c r="B81" s="3">
         <v>44700</v>
       </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s">
         <v>131</v>
       </c>
-      <c r="E81" s="6">
+      <c r="D81" s="6">
         <v>0.56309027777777776</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="3">
+      <c r="B82" s="3">
         <v>44647</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>177</v>
       </c>
-      <c r="E82" s="6">
+      <c r="D82" s="6">
         <v>0.18263888888888888</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="3">
+      <c r="B83" s="3">
         <v>43892</v>
       </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>178</v>
       </c>
-      <c r="E83" s="6">
+      <c r="D83" s="6">
         <v>0.97116898148148145</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="3">
+      <c r="B84" s="3">
         <v>45848</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" t="s">
         <v>179</v>
       </c>
-      <c r="E84" s="6">
+      <c r="D84" s="6">
         <v>0.79002314814814811</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="3">
+      <c r="B85" s="3">
         <v>44515</v>
       </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s">
         <v>180</v>
       </c>
-      <c r="E85" s="6">
+      <c r="D85" s="6">
         <v>0.85714120370370372</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="3">
+      <c r="B86" s="3">
         <v>45241</v>
       </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>181</v>
       </c>
-      <c r="E86" s="6">
+      <c r="D86" s="6">
         <v>0.90914351851851849</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="3">
+      <c r="B87" s="3">
         <v>45964</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s">
         <v>182</v>
       </c>
-      <c r="E87" s="6">
+      <c r="D87" s="6">
         <v>0.67921296296296296</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="3">
+      <c r="B88" s="3">
         <v>44700</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s">
         <v>183</v>
       </c>
-      <c r="E88" s="6">
+      <c r="D88" s="6">
         <v>3.1331018518518522E-2</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>16</v>
       </c>
-      <c r="C89" s="3">
+      <c r="B89" s="3">
         <v>45583</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>184</v>
       </c>
-      <c r="E89" s="6">
+      <c r="D89" s="6">
         <v>0.71357638888888886</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="3">
+      <c r="B90" s="3">
         <v>44501</v>
       </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="6">
+      <c r="D90" s="6">
         <v>0.23133101851851851</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="3">
+      <c r="B91" s="3">
         <v>44667</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s">
         <v>186</v>
       </c>
-      <c r="E91" s="6">
+      <c r="D91" s="6">
         <v>0.56805555555555554</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>13</v>
       </c>
-      <c r="C92" s="3">
+      <c r="B92" s="3">
         <v>44169</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>187</v>
       </c>
-      <c r="E92" s="6">
+      <c r="D92" s="6">
         <v>0.41362268518518519</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>12</v>
       </c>
-      <c r="C93" s="3">
+      <c r="B93" s="3">
         <v>44440</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
         <v>188</v>
       </c>
-      <c r="E93" s="6">
+      <c r="D93" s="6">
         <v>0.41197916666666667</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="3">
+      <c r="B94" s="3">
         <v>45866</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="6">
+      <c r="D94" s="6">
         <v>0.58423611111111107</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="3">
+      <c r="B95" s="3">
         <v>45822</v>
       </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s">
         <v>190</v>
       </c>
-      <c r="E95" s="6">
+      <c r="D95" s="6">
         <v>0.69611111111111112</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="3">
+      <c r="B96" s="3">
         <v>45422</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s">
         <v>191</v>
       </c>
-      <c r="E96" s="6">
+      <c r="D96" s="6">
         <v>0.77758101851851846</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="3">
+      <c r="B97" s="3">
         <v>44310</v>
       </c>
-      <c r="D97" t="s">
+      <c r="C97" t="s">
         <v>118</v>
       </c>
-      <c r="E97" s="6">
+      <c r="D97" s="6">
         <v>0.32950231481481479</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="3">
+      <c r="B98" s="3">
         <v>45323</v>
       </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="6">
+      <c r="D98" s="6">
         <v>0.67606481481481484</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="3">
+      <c r="B99" s="3">
         <v>45612</v>
       </c>
-      <c r="D99" t="s">
+      <c r="C99" t="s">
         <v>192</v>
       </c>
-      <c r="E99" s="6">
+      <c r="D99" s="6">
         <v>0.14027777777777778</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>5</v>
       </c>
-      <c r="C100" s="3">
+      <c r="B100" s="3">
         <v>45686</v>
       </c>
-      <c r="D100" t="s">
+      <c r="C100" t="s">
         <v>193</v>
       </c>
-      <c r="E100" s="6">
+      <c r="D100" s="6">
         <v>0.26003472222222224</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="C101" s="3">
+      <c r="B101" s="3">
         <v>44835</v>
       </c>
-      <c r="D101" t="s">
+      <c r="C101" t="s">
         <v>176</v>
       </c>
-      <c r="E101" s="6">
+      <c r="D101" s="6">
         <v>0.49709490740740742</v>
       </c>
     </row>
